--- a/Assets/_Excel/card.xlsx
+++ b/Assets/_Excel/card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GameMaker\AVG\AWSL\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9586BC1-38F6-40EC-AD76-E9E75111F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61944A0-9437-4979-A40E-D5E6B154B0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>Effects/SpinZoneBlue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParalysisCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走开别碍事…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardgame/GreyCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardgame/Extract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects/SmokeExplosionDark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -706,11 +733,11 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -718,8 +745,8 @@
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>31</v>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -750,8 +777,8 @@
       <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
+      <c r="J6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -765,7 +792,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="1">
-        <v>1005</v>
+        <v>10005</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -782,8 +809,40 @@
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10006</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
